--- a/team103文档归档/team103项目总结报告/开发和测试过程数据统计对照表103.xlsx
+++ b/team103文档归档/team103项目总结报告/开发和测试过程数据统计对照表103.xlsx
@@ -157,14 +157,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>贡献度分配的计算依据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>追踪到其他几个数据表所列出的统计数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>13e0f6b</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1091,6 +1083,14 @@
     <t>KL-C-X-X</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>见《团队绩效考核办法》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>见《任务统计表》《commit统计表》《测试统计表》以及《对照表》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1099,7 +1099,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1212,6 +1212,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1316,7 +1322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1410,9 +1416,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1420,6 +1423,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1431,14 +1443,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1746,7 +1761,7 @@
   <dimension ref="A1:P228"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1769,14 +1784,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
@@ -1823,19 +1838,19 @@
         <v>0</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>65</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
@@ -1843,19 +1858,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -1883,10 +1898,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="2"/>
@@ -1907,10 +1922,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="2"/>
@@ -1931,10 +1946,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="30"/>
       <c r="E12" s="2"/>
@@ -1955,13 +1970,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1981,13 +1996,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -2007,13 +2022,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2033,7 +2048,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="10"/>
@@ -2055,13 +2070,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C17" s="10">
         <v>4662817</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2081,13 +2096,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -2105,13 +2120,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -2131,13 +2146,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -2155,13 +2170,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2179,10 +2194,10 @@
         <v>13</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D22" s="10"/>
       <c r="G22" s="2"/>
@@ -2201,10 +2216,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D23" s="10"/>
       <c r="G23" s="2"/>
@@ -2223,13 +2238,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -2247,13 +2262,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -2271,13 +2286,13 @@
         <v>17</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2297,10 +2312,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="2"/>
@@ -2321,7 +2336,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -2389,14 +2404,14 @@
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="1:16" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="36"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -2441,19 +2456,19 @@
         <v>1</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="10" t="s">
+      <c r="E34" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="F34" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>64</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -2470,11 +2485,21 @@
       <c r="A35" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
+      <c r="B35" s="40">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="C35" s="40">
+        <v>0.2</v>
+      </c>
+      <c r="D35" s="40">
+        <v>0.182</v>
+      </c>
+      <c r="E35" s="40">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="F35" s="40">
+        <v>0.215</v>
+      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -2508,13 +2533,13 @@
       <c r="A37" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="33"/>
+      <c r="B37" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="32"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -2530,13 +2555,13 @@
       <c r="A38" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="33"/>
+      <c r="B38" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="43"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -5777,12 +5802,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
@@ -5803,13 +5828,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
@@ -5817,13 +5842,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
@@ -5831,13 +5856,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
@@ -5845,13 +5870,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
@@ -5859,13 +5884,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
@@ -5873,13 +5898,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
@@ -5887,13 +5912,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
@@ -5901,13 +5926,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
@@ -5915,13 +5940,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
@@ -5929,13 +5954,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
@@ -5943,13 +5968,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
@@ -5957,13 +5982,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
@@ -5971,13 +5996,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
@@ -5985,13 +6010,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
@@ -5999,13 +6024,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
@@ -6013,13 +6038,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
@@ -6027,13 +6052,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
@@ -6041,13 +6066,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
@@ -6055,13 +6080,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -6092,13 +6117,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
@@ -6122,16 +6147,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="25">
         <v>0</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -6139,16 +6164,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="25">
         <v>0</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -6156,16 +6181,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="25">
         <v>0</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -6173,16 +6198,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -6190,16 +6215,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="D7" s="26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -6207,16 +6232,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -6224,16 +6249,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -6241,16 +6266,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -6258,16 +6283,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -6275,16 +6300,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" s="26">
         <v>0</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -6292,16 +6317,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -6309,16 +6334,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -6326,16 +6351,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>119</v>
-      </c>
       <c r="E15" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -6343,16 +6368,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>122</v>
-      </c>
       <c r="E16" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -6360,16 +6385,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>125</v>
-      </c>
       <c r="E17" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -6377,16 +6402,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>128</v>
-      </c>
       <c r="E18" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -6394,16 +6419,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>131</v>
-      </c>
       <c r="E19" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -6411,16 +6436,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>134</v>
-      </c>
       <c r="E20" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -6428,16 +6453,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>137</v>
-      </c>
       <c r="E21" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -6445,16 +6470,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>140</v>
-      </c>
       <c r="E22" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -6462,16 +6487,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D23" s="28">
         <v>131</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -6479,16 +6504,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D24" s="25">
         <v>63</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -6496,16 +6521,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D25" s="28">
         <v>56047</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -6513,16 +6538,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D26" s="25">
         <v>0</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -6530,16 +6555,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D27" s="25">
         <v>51</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -6547,16 +6572,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D28" s="25">
         <v>66</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -6564,16 +6589,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D29" s="25">
         <v>66</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -6581,16 +6606,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D30" s="25">
         <v>234</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -6601,13 +6626,13 @@
         <v>4662817</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D31" s="25">
         <v>659</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
@@ -6618,13 +6643,13 @@
         <v>1707673</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D32" s="25">
         <v>113</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -6632,16 +6657,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D33" s="25">
         <v>72</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -6649,16 +6674,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D34" s="25">
         <v>12811</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -6666,16 +6691,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D35" s="25">
         <v>93</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -6683,16 +6708,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D36" s="25">
         <v>81</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -6700,16 +6725,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D37" s="25">
         <v>0</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -6717,16 +6742,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D38" s="25">
         <v>81</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -6734,16 +6759,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D39" s="25">
         <v>58</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -6751,16 +6776,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D40" s="25">
         <v>2677</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
@@ -6768,16 +6793,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D41" s="25">
         <v>0</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
@@ -6785,16 +6810,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D42" s="25">
         <v>77524</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
@@ -6802,16 +6827,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D43" s="25">
         <v>177</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
@@ -6819,16 +6844,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D44" s="25">
         <v>56</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -6859,13 +6884,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
@@ -6889,16 +6914,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="E3" s="23" t="s">
         <v>159</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="51.75" x14ac:dyDescent="0.15">
@@ -6906,16 +6931,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="E4" s="23" t="s">
         <v>163</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
@@ -6923,14 +6948,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
@@ -6938,14 +6963,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
@@ -6953,16 +6978,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="E7" s="23" t="s">
         <v>172</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
@@ -6970,16 +6995,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>177</v>
-      </c>
       <c r="E8" s="23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
@@ -6987,14 +7012,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
@@ -7002,14 +7027,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
@@ -7017,14 +7042,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
@@ -7032,14 +7057,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
@@ -7047,14 +7072,14 @@
         <v>11</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
@@ -7062,14 +7087,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
@@ -7077,14 +7102,14 @@
         <v>13</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
@@ -7092,14 +7117,14 @@
         <v>14</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
@@ -7107,14 +7132,14 @@
         <v>15</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
@@ -7122,14 +7147,14 @@
         <v>16</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
@@ -7137,16 +7162,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="E19" s="22" t="s">
         <v>203</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
@@ -7154,16 +7179,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>208</v>
-      </c>
       <c r="E20" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
@@ -7171,16 +7196,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>211</v>
-      </c>
       <c r="E21" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
@@ -7188,16 +7213,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="E22" s="22" t="s">
         <v>213</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
@@ -7205,14 +7230,14 @@
         <v>21</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
@@ -7220,14 +7245,14 @@
         <v>22</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
@@ -7235,14 +7260,14 @@
         <v>23</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
@@ -7250,14 +7275,14 @@
         <v>24</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
